--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\MyGit\GITA-FED213\000.커리큐럼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\GITA-FED213\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>3주차</t>
   </si>
@@ -262,11 +262,6 @@
   <si>
     <t>자바스크립트 + 제이쿼리 실습 및 응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>작품발표회
-12/27(월)
-7,7교시</t>
   </si>
   <si>
     <t>9주차</t>
@@ -392,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -626,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,6 +688,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,53 +751,35 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1069,7 +1094,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1089,39 +1114,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1142,60 +1167,61 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="44">
         <v>44559</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="44">
         <v>44560</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="46">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="34"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="21">
         <v>44564</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="21">
         <v>44568</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="17"/>
+      <c r="J6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
       <c r="B7" s="10" t="s">
@@ -1345,7 +1371,7 @@
         <v>44603</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>26</v>
@@ -1379,42 +1405,39 @@
       <c r="J12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>42</v>
-      </c>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" thickBot="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="36">
+      <c r="B13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="27">
         <v>44614</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="27">
         <v>44614</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="29">
         <f>DAYS360(C13,E13)+1</f>
         <v>1</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="31">
         <v>44613</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="42" t="s">
-        <v>44</v>
+      <c r="K13" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
@@ -1426,30 +1449,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
@@ -119,10 +119,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>분석 / 설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>발표</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -153,14 +149,6 @@
   <si>
     <t>jQuery 응용 + Vue.js 적용, 
 파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인설계 : 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인설계 : 세부사항기술</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -278,14 +266,25 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-도깨비 PJ + 미디어쿼리 + 애니메이션
- + 와이어프레이밍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>메인구현 : 상세구현하기
 +서브페이지구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석 / 설계 + 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 레이아웃 + 세부코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 상세구현하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습
+도깨비 PJ + 미디어쿼리 + 와이어프레이밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +729,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,34 +780,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1099,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1114,39 +1119,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="B2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1167,92 +1172,92 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="37">
         <v>44559</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="37">
         <v>44560</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="39">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="50"/>
+      <c r="G5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="37">
         <v>44564</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="37">
         <v>44568</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="22" t="s">
+      <c r="G6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="42"/>
+      <c r="J6" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="21">
         <v>44571</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="21">
         <v>44575</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="16">
+      <c r="G7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="34">
         <v>44571</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="17"/>
+      <c r="I7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
       <c r="B8" s="10" t="s">
@@ -1272,16 +1277,16 @@
         <v>5</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" s="16">
         <v>44579</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="17"/>
     </row>
@@ -1309,13 +1314,13 @@
         <v>44587</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
@@ -1336,14 +1341,14 @@
         <v>2</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -1365,16 +1370,16 @@
         <v>5</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="16">
         <v>44603</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="17"/>
     </row>
@@ -1396,20 +1401,20 @@
         <v>5</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" thickBot="1">
       <c r="B13" s="26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="27">
         <v>44614</v>
@@ -1425,19 +1430,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" s="31">
         <v>44613</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="47.25" customHeight="1" thickBot="1">
@@ -1449,30 +1454,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B16" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
@@ -699,9 +699,6 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,6 +756,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,11 +783,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1119,39 +1119,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1172,123 +1172,123 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>44559</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>44560</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="42" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>44564</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>44568</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="38" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="36">
         <v>44571</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="36">
         <v>44575</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="43">
         <v>44571</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="35"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="21">
         <v>44578</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="21">
         <v>44582</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="33">
         <v>44579</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
       <c r="B9" s="10" t="s">
@@ -1413,35 +1413,35 @@
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" thickBot="1">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>44614</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>44614</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <f>DAYS360(C13,E13)+1</f>
         <v>1</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="30">
         <v>44613</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="32" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1454,30 +1454,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
@@ -626,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,9 +729,6 @@
     <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,7 +780,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1098,8 +1101,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1119,39 +1122,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1172,154 +1175,154 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>44559</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>44560</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="41" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="42"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>44564</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>44568</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="37" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>44571</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>44575</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="42">
         <v>44571</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="35">
         <v>44578</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="35">
         <v>44582</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="42">
         <v>44579</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="21">
         <v>44585</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="21">
         <v>44589</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="23">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="33">
         <v>44587</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="52" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1454,30 +1457,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
@@ -626,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +759,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,13 +789,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,7 +1105,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1122,39 +1125,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1278,7 +1281,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="46" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="42">
@@ -1293,67 +1296,67 @@
       <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="35">
         <v>44585</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="35">
         <v>44589</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="37">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="42">
         <v>44587</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="54" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="21">
         <v>44595</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="21">
         <v>44596</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="23">
         <f>DAYS360(C10,E10)+1</f>
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="19"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
       <c r="B11" s="10" t="s">
@@ -1457,30 +1460,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>3주차</t>
   </si>
@@ -285,6 +285,11 @@
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 도깨비 PJ + 미디어쿼리 + 와이어프레이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / jQuery 기본, 
+VOGUE PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -768,6 +773,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,9 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1125,39 +1130,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1324,7 +1329,7 @@
       <c r="J9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="47" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1354,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -1460,30 +1465,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED213_주단위상세일정.xlsx
@@ -288,7 +288,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 기본,응용 / jQuery 기본, 
+    <t>Javascript 기본,응용
 VOGUE PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -631,7 +631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,12 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,17 +758,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1110,7 +1104,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1130,39 +1124,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1183,229 +1177,229 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>44559</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>44560</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="35">
         <f t="shared" ref="F5:F8" si="0">DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="40" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>44564</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>44568</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>44571</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>44575</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="40">
         <v>44571</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>44578</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>44582</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="40">
         <v>44579</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="43"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="33">
         <v>44585</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>44589</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="35">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="40">
         <v>44587</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="33">
         <v>44595</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="33">
         <v>44596</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="35">
         <f>DAYS360(C10,E10)+1</f>
         <v>2</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="40"/>
+      <c r="I10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1">
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="19">
         <v>44599</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="19">
         <v>44603</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="21">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="31">
         <v>44603</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="11">
-        <v>44605</v>
+        <v>44606</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="11">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="F12" s="13">
         <f>DAYS360(C12,E12)+1</f>
@@ -1421,38 +1415,38 @@
       <c r="J12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="19"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="51" customHeight="1" thickBot="1">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="26">
-        <v>44614</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="24">
+        <v>44613</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="26">
-        <v>44614</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="24">
+        <v>44613</v>
+      </c>
+      <c r="F13" s="26">
         <f>DAYS360(C13,E13)+1</f>
         <v>1</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="28">
         <v>44613</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="30" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1465,30 +1459,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="20.25">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
